--- a/ClosedXML.Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -521,24 +521,24 @@
     <x:row r="4" spans="1:4" s="5" customFormat="1"/>
     <x:row r="5" spans="1:4" s="3" customFormat="1"/>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="1" t="s"/>
-      <x:c r="C8" s="1" t="s"/>
-      <x:c r="D8" s="1" t="s"/>
+      <x:c r="B8" s="1"/>
+      <x:c r="C8" s="1"/>
+      <x:c r="D8" s="1"/>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="B9" s="4" t="s"/>
-      <x:c r="C9" s="4" t="s"/>
-      <x:c r="D9" s="4" t="s"/>
+      <x:c r="B9" s="4"/>
+      <x:c r="C9" s="4"/>
+      <x:c r="D9" s="4"/>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="B11" s="5" t="s"/>
-      <x:c r="C11" s="5" t="s"/>
-      <x:c r="D11" s="5" t="s"/>
+      <x:c r="B11" s="5"/>
+      <x:c r="C11" s="5"/>
+      <x:c r="D11" s="5"/>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="C12" s="3" t="s"/>
-      <x:c r="D12" s="3" t="s"/>
+      <x:c r="B12" s="3"/>
+      <x:c r="C12" s="3"/>
+      <x:c r="D12" s="3"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -568,22 +568,22 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:12">
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="4" t="s"/>
-      <x:c r="K2" s="5" t="s"/>
-      <x:c r="L2" s="3" t="s"/>
+      <x:c r="H2" s="1"/>
+      <x:c r="I2" s="4"/>
+      <x:c r="K2" s="5"/>
+      <x:c r="L2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:12">
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="4" t="s"/>
-      <x:c r="K3" s="5" t="s"/>
-      <x:c r="L3" s="3" t="s"/>
+      <x:c r="H3" s="1"/>
+      <x:c r="I3" s="4"/>
+      <x:c r="K3" s="5"/>
+      <x:c r="L3" s="3"/>
     </x:row>
     <x:row r="4" spans="1:12">
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="4" t="s"/>
-      <x:c r="K4" s="5" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
+      <x:c r="H4" s="1"/>
+      <x:c r="I4" s="4"/>
+      <x:c r="K4" s="5"/>
+      <x:c r="L4" s="3"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>(3,5)</x:t>
   </x:si>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Walking Cells" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Walking rows" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Walking columns" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Walking Cells" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Walking rows" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Walking columns" sheetId="3" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
